--- a/database/gartner_database.xlsx
+++ b/database/gartner_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6727ae3ed574fa78/JOINDATA/Biblioteca/Apresentações/Gartner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6727ae3ed574fa78/JOINDATA/Projetos em Andamento/Github/qlik_gartner/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_DF589CA9A15AEF993EE280DE48FA960FD658635C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A67075F3-2177-4D7F-A3FF-83C124B1928D}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_DF589CA9A15AEF993EE280DE48FA960FD658635C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0898607A-DFCA-4093-827B-E346D9FC992E}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14805" yWindow="8400" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="74">
   <si>
     <t>Vendor</t>
   </si>
@@ -266,6 +266,36 @@
 • Product pricing complexity
 • Low market momentum
 • Lack of product cohesiveness</t>
+  </si>
+  <si>
+    <t>Strenghts:
+• Business user-centric
+• Analytics economy
+• Salesforce ecosystem opportunity
+Cautions:
+• Premium pricing
+• Service and support
+• Envolving Einstein Discovery experience</t>
+  </si>
+  <si>
+    <t>Strengths:
+• Flexibility of deployment
+• Expanding portfolio of capabilities
+• Customer engagement and data literacy programs
+Cautions:
+• Product licensing complexity
+• Plateaued market momentum
+• Product cohesiveness</t>
+  </si>
+  <si>
+    <t>Strenghts:
+• Alignment with Office 365, Teams and Azure Synapse
+• Price/value combination
+• Power portfolio and product ambition
+Cautions:
+• Gaps in on-premises capabilities
+• Azure as the only deployment option
+• Content publication process and governance</t>
   </si>
 </sst>
 </file>
@@ -572,10 +602,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -607,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C2">
         <v>29.5</v>
@@ -616,7 +646,7 @@
         <v>31.5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -624,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C3">
         <v>25.5</v>
@@ -633,7 +663,7 @@
         <v>25.5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -641,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C4">
         <v>26</v>
@@ -650,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -658,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C5">
         <v>26.5</v>
@@ -672,13 +702,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C6">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,13 +716,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C7">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="D7">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,13 +730,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C8">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,13 +744,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
       <c r="D9">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C10">
         <v>24.5</v>
@@ -742,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C11">
         <v>23</v>
@@ -756,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C12">
         <v>18.5</v>
@@ -770,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C13">
         <v>17.5</v>
@@ -784,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C14">
         <v>14.5</v>
@@ -798,13 +828,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
         <v>19.5</v>
@@ -821,26 +851,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C17">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -849,12 +879,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C19">
         <v>9.5</v>
@@ -863,12 +893,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C20">
         <v>14.5</v>
@@ -877,12 +907,12 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C21">
         <v>13.5</v>
@@ -891,505 +921,514 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="D22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31.5</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C23">
         <v>25.5</v>
       </c>
       <c r="D23">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25.5</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C25">
+        <v>26.5</v>
+      </c>
+      <c r="D25">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C26">
+        <v>21.5</v>
+      </c>
+      <c r="D26">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C27">
+        <v>22.5</v>
+      </c>
+      <c r="D27">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C28">
+        <v>23.5</v>
+      </c>
+      <c r="D28">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C30">
+        <v>24.5</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C31">
         <v>23</v>
       </c>
-      <c r="D25">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C26">
+      <c r="D31">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C32">
         <v>18.5</v>
       </c>
-      <c r="D26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C27">
-        <v>19.5</v>
-      </c>
-      <c r="D27">
+      <c r="D32">
         <v>22.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C28">
-        <v>14.5</v>
-      </c>
-      <c r="D28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C29">
-        <v>20.5</v>
-      </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C30">
-        <v>22</v>
-      </c>
-      <c r="D30">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C31">
-        <v>21.5</v>
-      </c>
-      <c r="D31">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C32">
-        <v>25.5</v>
-      </c>
-      <c r="D32">
-        <v>18.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="D34">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B35" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C35">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="D35">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C36">
+        <v>19.5</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C37">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C36">
+      <c r="D37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C39">
+        <v>9.5</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C40">
+        <v>14.5</v>
+      </c>
+      <c r="D40">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C41">
+        <v>13.5</v>
+      </c>
+      <c r="D41">
         <v>9</v>
       </c>
-      <c r="D36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C40">
-        <v>12.5</v>
-      </c>
-      <c r="D40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C41">
-        <v>13</v>
-      </c>
-      <c r="D41">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B42" s="4">
         <v>2020</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B43" s="4">
         <v>2020</v>
       </c>
       <c r="C43">
-        <v>17.5</v>
+        <v>25.5</v>
       </c>
       <c r="D43">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B45" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C45">
-        <v>26.5</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C46">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="D46">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="D47">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C48">
+        <v>14.5</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C48">
-        <v>27</v>
-      </c>
-      <c r="D48">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="B49" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C49">
-        <v>28</v>
+        <v>20.5</v>
       </c>
       <c r="D49">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C50">
         <v>22</v>
       </c>
       <c r="D50">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C51">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="D51">
         <v>17.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C52">
+        <v>25.5</v>
+      </c>
+      <c r="D52">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C52">
-        <v>22</v>
-      </c>
-      <c r="D52">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B53" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C53">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B54" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C54">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B55" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B56" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>16.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>15</v>
@@ -1397,58 +1436,58 @@
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B58" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C58">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B59" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B60" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C60">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B61" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C61">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1456,13 +1495,13 @@
         <v>18</v>
       </c>
       <c r="B62" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C62">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1470,27 +1509,27 @@
         <v>29</v>
       </c>
       <c r="B63" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="D63">
-        <v>11.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B64" s="4">
         <v>2019</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1498,94 +1537,94 @@
         <v>5</v>
       </c>
       <c r="B65" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C65">
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="D65">
-        <v>28.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B66" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C66">
-        <v>32.5</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>28.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C67">
-        <v>29.5</v>
+        <v>26</v>
       </c>
       <c r="D67">
-        <v>22.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B68" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C68">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B69" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C69">
-        <v>26.5</v>
+        <v>28</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B71" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C71">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
       <c r="D71">
         <v>17.5</v>
@@ -1593,83 +1632,83 @@
     </row>
     <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B73" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="D73">
-        <v>14</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B74" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C74">
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
       <c r="D74">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B75" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>12.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B76" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76">
         <v>16.5</v>
-      </c>
-      <c r="D76">
-        <v>17.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B77" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C77">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>15</v>
@@ -1677,30 +1716,30 @@
     </row>
     <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B78" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C78">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="D78">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B79" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>14</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1708,94 +1747,94 @@
         <v>9</v>
       </c>
       <c r="B80" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="D80">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B81" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C81">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="D81">
-        <v>10.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B82" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C82">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B83" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B84" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C84">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B85" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C85">
-        <v>32.5</v>
+        <v>25.5</v>
       </c>
       <c r="D85">
-        <v>28</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C86">
-        <v>27</v>
+        <v>32.5</v>
       </c>
       <c r="D86">
         <v>28.5</v>
@@ -1806,237 +1845,237 @@
         <v>6</v>
       </c>
       <c r="B87" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C87">
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
       <c r="D87">
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B88" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C88">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="D88">
-        <v>18</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B89" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C89">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B90" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C90">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B91" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C91">
-        <v>20.5</v>
+        <v>27.5</v>
       </c>
       <c r="D91">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C92">
+        <v>23</v>
+      </c>
+      <c r="D92">
         <v>16</v>
-      </c>
-      <c r="B92" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C92">
-        <v>20.5</v>
-      </c>
-      <c r="D92">
-        <v>13.5</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B93" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C93">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D93">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B94" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C94">
-        <v>28.5</v>
+        <v>21.5</v>
       </c>
       <c r="D94">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B95" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C95">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B96" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C96">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B97" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C97">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="D97">
-        <v>18.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B98" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C98">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="D98">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B99" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C99">
         <v>14</v>
       </c>
       <c r="D99">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B100" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B101" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C101">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="D101">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B102" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="D102">
-        <v>11.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B103" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C103">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>11</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2044,531 +2083,531 @@
         <v>27</v>
       </c>
       <c r="B104" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C104">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B105" s="4">
         <v>2017</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>32.5</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B106" s="4">
         <v>2017</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D106">
-        <v>6</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B107" s="4">
         <v>2017</v>
       </c>
       <c r="C107">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="D107">
-        <v>4.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B108" s="4">
         <v>2017</v>
       </c>
       <c r="C108">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="D108">
-        <v>3.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B109" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C109">
-        <v>29.5</v>
+        <v>25</v>
       </c>
       <c r="D109">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B110" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C110">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="D110">
-        <v>23.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B111" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C111">
-        <v>26</v>
+        <v>20.5</v>
       </c>
       <c r="D111">
-        <v>22.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B112" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C112">
-        <v>24.5</v>
+        <v>20.5</v>
       </c>
       <c r="D112">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B113" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C113">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="D113">
-        <v>19</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B114" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C114">
-        <v>23.5</v>
+        <v>28.5</v>
       </c>
       <c r="D114">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B115" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C115">
-        <v>22.5</v>
+        <v>28</v>
       </c>
       <c r="D115">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B116" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C116">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D116">
-        <v>11.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B117" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C117">
-        <v>25.5</v>
+        <v>17.5</v>
       </c>
       <c r="D117">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B118" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C118">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="D118">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B119" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C119">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D119">
-        <v>10.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B120" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C120">
-        <v>20.5</v>
+        <v>16</v>
       </c>
       <c r="D120">
-        <v>9.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B121" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C121">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="D121">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B122" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C122">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="D122">
-        <v>19</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B123" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C123">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="D123">
-        <v>15.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B124" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D124">
-        <v>14.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B125" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C125">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="D125">
-        <v>13.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B126" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C126">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>11.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B127" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C127">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="D127">
-        <v>11</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B128" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C128">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="D128">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B129" s="4">
         <v>2016</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>29.5</v>
       </c>
       <c r="D129">
-        <v>10.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B130" s="4">
         <v>2016</v>
       </c>
       <c r="C130">
-        <v>13.5</v>
+        <v>24.5</v>
       </c>
       <c r="D130">
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B131" s="4">
         <v>2016</v>
       </c>
       <c r="C131">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="D131">
-        <v>5.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B132" s="4">
         <v>2016</v>
       </c>
       <c r="C132">
-        <v>16.5</v>
+        <v>24.5</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B133" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C133">
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
       <c r="D133">
-        <v>28.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C134">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="D134">
-        <v>24</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B135" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C135">
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="D135">
-        <v>22.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B136" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C136">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="D136">
-        <v>21</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B137" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C137">
-        <v>21.5</v>
+        <v>25.5</v>
       </c>
       <c r="D137">
-        <v>21</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B138" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C138">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D138">
-        <v>20.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B139" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C139">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D139">
-        <v>21</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B140" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C140">
-        <v>26.5</v>
+        <v>20.5</v>
       </c>
       <c r="D140">
-        <v>21</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B141" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C141">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D141">
-        <v>21.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2576,200 +2615,200 @@
         <v>29</v>
       </c>
       <c r="B142" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C142">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="D142">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B143" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C143">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="D143">
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B144" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C144">
-        <v>21.5</v>
+        <v>16</v>
       </c>
       <c r="D144">
-        <v>19</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B145" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C145">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="D145">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B146" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C146">
         <v>16.5</v>
       </c>
       <c r="D146">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B147" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C147">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="D147">
-        <v>18.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B148" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C148">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D148">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B149" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C149">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D149">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B150" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C150">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="D150">
-        <v>16</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B151" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C151">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="D151">
-        <v>15.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B152" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C152">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="D152">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B153" s="4">
         <v>2015</v>
       </c>
       <c r="C153">
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
       <c r="D153">
-        <v>15.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B154" s="4">
         <v>2015</v>
       </c>
       <c r="C154">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="D154">
-        <v>12.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B155" s="4">
         <v>2015</v>
       </c>
       <c r="C155">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D155">
-        <v>10</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B156" s="4">
         <v>2015</v>
@@ -2778,49 +2817,49 @@
         <v>20.5</v>
       </c>
       <c r="D156">
-        <v>14.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B157" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C157">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="D157">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B158" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C158">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="D158">
-        <v>27.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B159" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C159">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D159">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2828,122 +2867,122 @@
         <v>11</v>
       </c>
       <c r="B160" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C160">
-        <v>23.5</v>
+        <v>26.5</v>
       </c>
       <c r="D160">
-        <v>23.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B161" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C161">
-        <v>23.5</v>
+        <v>27</v>
       </c>
       <c r="D161">
-        <v>23</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B162" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C162">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="D162">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B163" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C163">
-        <v>26.5</v>
+        <v>19.5</v>
       </c>
       <c r="D163">
-        <v>24</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B164" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C164">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="D164">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B165" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C165">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="D165">
-        <v>21.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B166" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C166">
-        <v>22.5</v>
+        <v>16.5</v>
       </c>
       <c r="D166">
-        <v>21.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B167" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C167">
-        <v>22.5</v>
+        <v>18</v>
       </c>
       <c r="D167">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B168" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C168">
-        <v>20.5</v>
+        <v>14</v>
       </c>
       <c r="D168">
         <v>17.5</v>
@@ -2951,576 +2990,576 @@
     </row>
     <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B169" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C169">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="D169">
-        <v>24</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B170" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C170">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="D170">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B171" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C171">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="D171">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B172" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C172">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="D172">
-        <v>19.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B173" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C173">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="D173">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B174" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C174">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="D174">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B175" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C175">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="D175">
-        <v>18.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B176" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C176">
-        <v>14</v>
+        <v>20.5</v>
       </c>
       <c r="D176">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B177" s="4">
         <v>2014</v>
       </c>
       <c r="C177">
-        <v>12</v>
+        <v>23.5</v>
       </c>
       <c r="D177">
-        <v>16.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B178" s="4">
         <v>2014</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>23.5</v>
       </c>
       <c r="D178">
-        <v>16</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B179" s="4">
         <v>2014</v>
       </c>
       <c r="C179">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="D179">
-        <v>14.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B180" s="4">
         <v>2014</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>23.5</v>
       </c>
       <c r="D180">
-        <v>12.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B181" s="4">
         <v>2014</v>
       </c>
       <c r="C181">
-        <v>11.5</v>
+        <v>23.5</v>
       </c>
       <c r="D181">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B182" s="4">
         <v>2014</v>
       </c>
       <c r="C182">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D182">
-        <v>9.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B183" s="4">
         <v>2014</v>
       </c>
       <c r="C183">
-        <v>9.5</v>
+        <v>26.5</v>
       </c>
       <c r="D183">
-        <v>7.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B184" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C184">
-        <v>25.5</v>
+        <v>23.5</v>
       </c>
       <c r="D184">
-        <v>31.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B185" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C185">
         <v>20.5</v>
       </c>
       <c r="D185">
-        <v>30</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B186" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C186">
         <v>22.5</v>
       </c>
       <c r="D186">
-        <v>29.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B187" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C187">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="D187">
-        <v>29</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B188" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C188">
-        <v>31</v>
+        <v>20.5</v>
       </c>
       <c r="D188">
-        <v>28.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B189" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C189">
-        <v>25.5</v>
+        <v>19.5</v>
       </c>
       <c r="D189">
-        <v>27.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B190" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C190">
-        <v>20.5</v>
+        <v>12</v>
       </c>
       <c r="D190">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B191" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C191">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="D191">
-        <v>26.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B192" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C192">
-        <v>23.5</v>
+        <v>16.5</v>
       </c>
       <c r="D192">
-        <v>26.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B193" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C193">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D193">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B194" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C194">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="D194">
-        <v>23.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B195" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C195">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="D195">
-        <v>23</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B196" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C196">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="D196">
-        <v>19</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B197" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C197">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="D197">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B198" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C198">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="D198">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B199" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C199">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="D199">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B200" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C200">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D200">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B201" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C201">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="D201">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B202" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C202">
-        <v>19.5</v>
+        <v>7</v>
       </c>
       <c r="D202">
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B203" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C203">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="D203">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B204" s="4">
         <v>2013</v>
       </c>
       <c r="C204">
-        <v>12.5</v>
+        <v>25.5</v>
       </c>
       <c r="D204">
-        <v>12.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B205" s="4">
         <v>2013</v>
       </c>
       <c r="C205">
-        <v>10.5</v>
+        <v>20.5</v>
       </c>
       <c r="D205">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B206" s="4">
         <v>2013</v>
       </c>
       <c r="C206">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="D206">
-        <v>10</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B207" s="4">
         <v>2013</v>
       </c>
       <c r="C207">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B208" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C208">
-        <v>23.5</v>
+        <v>31</v>
       </c>
       <c r="D208">
-        <v>29</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B209" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C209">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="D209">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3528,38 +3567,38 @@
         <v>23</v>
       </c>
       <c r="B210" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C210">
         <v>20.5</v>
       </c>
       <c r="D210">
-        <v>26.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B211" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C211">
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="D211">
-        <v>26</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B212" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C212">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="D212">
         <v>26.5</v>
@@ -3567,97 +3606,97 @@
     </row>
     <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B213" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C213">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="D213">
-        <v>25</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B214" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C214">
-        <v>21.5</v>
+        <v>14.5</v>
       </c>
       <c r="D214">
-        <v>23</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B215" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C215">
-        <v>26.5</v>
+        <v>16</v>
       </c>
       <c r="D215">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B216" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C216">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="D216">
-        <v>28.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B217" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C217">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="D217">
-        <v>27</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B218" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C218">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="D218">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B219" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C219">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="D219">
         <v>16.5</v>
@@ -3668,10 +3707,10 @@
         <v>43</v>
       </c>
       <c r="B220" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C220">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="D220">
         <v>15.5</v>
@@ -3679,13 +3718,13 @@
     </row>
     <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B221" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C221">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="D221">
         <v>15</v>
@@ -3693,44 +3732,44 @@
     </row>
     <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B222" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C222">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B223" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C223">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="D223">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B224" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C224">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D224">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3738,122 +3777,122 @@
         <v>40</v>
       </c>
       <c r="B225" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C225">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D225">
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B226" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C226">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="D226">
-        <v>8.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B227" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C227">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="D227">
-        <v>6.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B228" s="4">
         <v>2012</v>
       </c>
       <c r="C228">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="D228">
-        <v>5.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B229" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C229">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="D229">
-        <v>29</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B230" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C230">
-        <v>24.5</v>
+        <v>20.5</v>
       </c>
       <c r="D230">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B231" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C231">
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="D231">
-        <v>26.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B232" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C232">
-        <v>29.5</v>
+        <v>24.5</v>
       </c>
       <c r="D232">
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B233" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C233">
-        <v>20.5</v>
+        <v>29.5</v>
       </c>
       <c r="D233">
         <v>25</v>
@@ -3864,111 +3903,111 @@
         <v>12</v>
       </c>
       <c r="B234" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C234">
         <v>21.5</v>
       </c>
       <c r="D234">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B235" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C235">
-        <v>22.5</v>
+        <v>26.5</v>
       </c>
       <c r="D235">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B236" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C236">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D236">
-        <v>21</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B237" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C237">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="D237">
-        <v>22.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B238" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C238">
+        <v>14</v>
+      </c>
+      <c r="D238">
         <v>19.5</v>
-      </c>
-      <c r="D238">
-        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B239" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C239">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="D239">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B240" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C240">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="D240">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B241" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C241">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="D241">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -3976,27 +4015,27 @@
         <v>41</v>
       </c>
       <c r="B242" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C242">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="D242">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B243" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C243">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D243">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4004,69 +4043,69 @@
         <v>47</v>
       </c>
       <c r="B244" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C244">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="D244">
-        <v>14.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B245" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C245">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="D245">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B246" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C246">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="D246">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B247" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C247">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="D247">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B248" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C248">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="D248">
-        <v>10</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4074,10 +4113,10 @@
         <v>4</v>
       </c>
       <c r="B249" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C249">
-        <v>22</v>
+        <v>24.5</v>
       </c>
       <c r="D249">
         <v>29</v>
@@ -4088,153 +4127,153 @@
         <v>9</v>
       </c>
       <c r="B250" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C250">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="D250">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B251" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C251">
-        <v>28</v>
+        <v>24.5</v>
       </c>
       <c r="D251">
-        <v>25</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B252" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C252">
-        <v>25</v>
+        <v>29.5</v>
       </c>
       <c r="D252">
-        <v>24</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B253" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C253">
-        <v>24.5</v>
+        <v>20.5</v>
       </c>
       <c r="D253">
-        <v>22.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B254" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C254">
-        <v>27</v>
+        <v>21.5</v>
       </c>
       <c r="D254">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B255" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C255">
+        <v>22.5</v>
+      </c>
+      <c r="D255">
         <v>23</v>
-      </c>
-      <c r="B255" s="4">
-        <v>2010</v>
-      </c>
-      <c r="C255">
-        <v>22</v>
-      </c>
-      <c r="D255">
-        <v>20.5</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B256" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C256">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="D256">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B257" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C257">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D257">
-        <v>21</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B258" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C258">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D258">
-        <v>20.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B259" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C259">
         <v>13</v>
       </c>
       <c r="D259">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B260" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C260">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="D260">
-        <v>15</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4242,615 +4281,615 @@
         <v>40</v>
       </c>
       <c r="B261" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C261">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="D261">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B262" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C262">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="D262">
-        <v>13.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B263" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C263">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D263">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B264" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C264">
-        <v>23.5</v>
+        <v>11.5</v>
       </c>
       <c r="D264">
-        <v>27</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B265" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C265">
-        <v>20.5</v>
+        <v>11</v>
       </c>
       <c r="D265">
-        <v>25.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B266" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C266">
-        <v>23.5</v>
+        <v>10.5</v>
       </c>
       <c r="D266">
-        <v>24</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B267" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C267">
-        <v>25.5</v>
+        <v>12.5</v>
       </c>
       <c r="D267">
-        <v>24</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B268" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C268">
-        <v>22.5</v>
+        <v>10.5</v>
       </c>
       <c r="D268">
-        <v>21.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B269" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C269">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D269">
-        <v>21.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B270" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C270">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="D270">
-        <v>21</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B271" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C271">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D271">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B272" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C272">
         <v>25</v>
       </c>
       <c r="D272">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B273" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C273">
-        <v>12</v>
+        <v>24.5</v>
       </c>
       <c r="D273">
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B274" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C274">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="D274">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B275" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C275">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="D275">
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B276" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C276">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="D276">
-        <v>13.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B277" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C277">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="D277">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B278" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C278">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D278">
-        <v>26.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B279" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C279">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D279">
-        <v>25</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B280" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C280">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="D280">
-        <v>22.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B281" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C281">
-        <v>21.5</v>
+        <v>11.5</v>
       </c>
       <c r="D281">
-        <v>20.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B282" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C282">
         <v>12</v>
       </c>
-      <c r="B282" s="4">
-        <v>2008</v>
-      </c>
-      <c r="C282">
-        <v>29.5</v>
-      </c>
       <c r="D282">
-        <v>21.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B283" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C283">
+        <v>10.5</v>
+      </c>
+      <c r="D283">
         <v>11</v>
-      </c>
-      <c r="B283" s="4">
-        <v>2008</v>
-      </c>
-      <c r="C283">
-        <v>19.5</v>
-      </c>
-      <c r="D283">
-        <v>23.5</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B284" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C284">
-        <v>20</v>
+        <v>23.5</v>
       </c>
       <c r="D284">
-        <v>21.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B285" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C285">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="D285">
-        <v>18.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B286" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C286">
-        <v>20.5</v>
+        <v>23.5</v>
       </c>
       <c r="D286">
-        <v>13.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B287" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C287">
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
       <c r="D287">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B288" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C288">
-        <v>12</v>
+        <v>22.5</v>
       </c>
       <c r="D288">
-        <v>14.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B289" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C289">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D289">
-        <v>14</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B290" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C290">
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="D290">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B291" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C291">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D291">
-        <v>25.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B292" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C292">
         <v>25</v>
       </c>
       <c r="D292">
-        <v>24.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B293" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C293">
-        <v>23.5</v>
+        <v>12</v>
       </c>
       <c r="D293">
-        <v>20.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B294" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C294">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="D294">
-        <v>20.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B295" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C295">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="D295">
-        <v>21.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B296" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C296">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="D296">
-        <v>22</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B297" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C297">
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="D297">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B298" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C298">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="D298">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B299" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C299">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D299">
-        <v>18.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B300" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C300">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="D300">
-        <v>13</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B301" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C301">
-        <v>14</v>
+        <v>21.5</v>
       </c>
       <c r="D301">
-        <v>11.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B302" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C302">
-        <v>10</v>
+        <v>29.5</v>
       </c>
       <c r="D302">
-        <v>11.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B303" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C303">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="D303">
-        <v>11</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B304" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C304">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D304">
-        <v>19</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4858,12 +4897,292 @@
         <v>48</v>
       </c>
       <c r="B305" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C305">
+        <v>22</v>
+      </c>
+      <c r="D305">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B306" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C306">
+        <v>20.5</v>
+      </c>
+      <c r="D306">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B307" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C307">
+        <v>19.5</v>
+      </c>
+      <c r="D307">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B308" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C308">
+        <v>12</v>
+      </c>
+      <c r="D308">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B309" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C309">
+        <v>11</v>
+      </c>
+      <c r="D309">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B310" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C310">
+        <v>15.5</v>
+      </c>
+      <c r="D310">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B311" s="4">
         <v>2007</v>
       </c>
-      <c r="C305">
+      <c r="C311">
+        <v>26</v>
+      </c>
+      <c r="D311">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B312" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C312">
+        <v>25</v>
+      </c>
+      <c r="D312">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B313" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C313">
+        <v>23.5</v>
+      </c>
+      <c r="D313">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C314">
+        <v>25</v>
+      </c>
+      <c r="D314">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C315">
+        <v>28</v>
+      </c>
+      <c r="D315">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B316" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C316">
+        <v>20</v>
+      </c>
+      <c r="D316">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B317" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C317">
+        <v>19</v>
+      </c>
+      <c r="D317">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B318" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C318">
+        <v>19.5</v>
+      </c>
+      <c r="D318">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B319" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C319">
+        <v>19</v>
+      </c>
+      <c r="D319">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B320" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C320">
+        <v>13.5</v>
+      </c>
+      <c r="D320">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B321" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C321">
+        <v>14</v>
+      </c>
+      <c r="D321">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B322" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C322">
+        <v>10</v>
+      </c>
+      <c r="D322">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B323" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C323">
+        <v>16.5</v>
+      </c>
+      <c r="D323">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B324" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C324">
+        <v>24</v>
+      </c>
+      <c r="D324">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B325" s="4">
+        <v>2007</v>
+      </c>
+      <c r="C325">
         <v>21</v>
       </c>
-      <c r="D305">
+      <c r="D325">
         <v>16.5</v>
       </c>
     </row>
@@ -4881,7 +5200,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
